--- a/18회차_실습체크리스트_안다윤.xlsx
+++ b/18회차_실습체크리스트_안다윤.xlsx
@@ -428,10 +428,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">git 주소 : </t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">git이 없을시 실습이 완료된 디렉터리를 압축하여(홍길동_실습.zip) DM으로 보내주세요.  </t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -441,6 +437,10 @@
   </si>
   <si>
     <t>이름 : 안다윤</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>git 주소 : https://github.com/lolddong/KB_exercise_questions.git</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -743,7 +743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,9 +822,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -843,75 +840,75 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
@@ -931,7 +928,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
@@ -971,35 +968,35 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3990,8 +3987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4024,7 +4021,7 @@
     </row>
     <row r="3" spans="1:6" ht="27" customHeight="1">
       <c r="A3" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
@@ -4357,18 +4354,18 @@
       <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
+      <c r="A27" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -4378,7 +4375,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
